--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Flask apps\Learn-French-with-Miti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0026576-FABA-44E3-B32C-2C38B6A05652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="13080" yWindow="-108" windowWidth="16512" windowHeight="8520" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Wheather"/>
-    <sheet r:id="rId2" sheetId="2" name="Food"/>
-    <sheet r:id="rId3" sheetId="3" name="Miscellaneous"/>
-    <sheet r:id="rId4" sheetId="4" name="City"/>
-    <sheet r:id="rId5" sheetId="5" name="House"/>
-    <sheet r:id="rId6" sheetId="6" name="People"/>
-    <sheet r:id="rId7" sheetId="7" name="Clothes"/>
-    <sheet r:id="rId8" sheetId="8" name="Appliences"/>
-    <sheet r:id="rId9" sheetId="9" name="Body"/>
-    <sheet r:id="rId10" sheetId="10" name="Animal"/>
-    <sheet r:id="rId11" sheetId="11" name="Nature"/>
+    <sheet name="Wheather" sheetId="1" r:id="rId1"/>
+    <sheet name="Food" sheetId="2" r:id="rId2"/>
+    <sheet name="City" sheetId="4" r:id="rId3"/>
+    <sheet name="House" sheetId="5" r:id="rId4"/>
+    <sheet name="Miscellaneous" sheetId="3" r:id="rId5"/>
+    <sheet name="People" sheetId="6" r:id="rId6"/>
+    <sheet name="Clothes" sheetId="7" r:id="rId7"/>
+    <sheet name="Appliences" sheetId="8" r:id="rId8"/>
+    <sheet name="Body" sheetId="9" r:id="rId9"/>
+    <sheet name="Animal" sheetId="10" r:id="rId10"/>
+    <sheet name="Nature" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="149">
   <si>
     <t>un ou une</t>
   </si>
@@ -65,9 +81,6 @@
     <t>l'</t>
   </si>
   <si>
-    <t>arble</t>
-  </si>
-  <si>
     <t>mauvaise herbe</t>
   </si>
   <si>
@@ -278,9 +291,6 @@
     <t>vol</t>
   </si>
   <si>
-    <t>bagage</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -299,21 +309,191 @@
     <t>yaourt</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>hiver</t>
   </si>
   <si>
     <t>été</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>bébé</t>
+  </si>
+  <si>
+    <t>biére</t>
+  </si>
+  <si>
+    <t>confiture</t>
+  </si>
+  <si>
+    <t>viande</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>tasse</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>arbre</t>
+  </si>
+  <si>
+    <t>collègue</t>
+  </si>
+  <si>
+    <t>la-le</t>
+  </si>
+  <si>
+    <t>ordinateur</t>
+  </si>
+  <si>
+    <t>stylo</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>téléphone</t>
+  </si>
+  <si>
+    <t>numéro</t>
+  </si>
+  <si>
+    <t>matin</t>
+  </si>
+  <si>
+    <t>banabe</t>
+  </si>
+  <si>
+    <t>légume</t>
+  </si>
+  <si>
+    <t>jour</t>
+  </si>
+  <si>
+    <t>nuit</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>excursion</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>heure</t>
+  </si>
+  <si>
+    <t>une excursion d'une journée</t>
+  </si>
+  <si>
+    <t>un voyage d'affaires</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>je n'arrive pas à me souvenir de son nom</t>
+  </si>
+  <si>
+    <t>un vol pour le Canada</t>
+  </si>
+  <si>
+    <t>Quel est votre prénome?</t>
+  </si>
+  <si>
+    <t>bagages</t>
+  </si>
+  <si>
+    <t>Vous avez une question?</t>
+  </si>
+  <si>
+    <t>Où est mes bagages?</t>
+  </si>
+  <si>
+    <t>La destination du train était Londres.</t>
+  </si>
+  <si>
+    <t>je ne connais pas sa nationalité.</t>
+  </si>
+  <si>
+    <t>Combien d'heures est-ce que cela va prendre?</t>
+  </si>
+  <si>
+    <t>l'espace immense qui s'étendent au fond de mon lit.</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>idée</t>
+  </si>
+  <si>
+    <t>Notre conversation mà donné une idée.</t>
+  </si>
+  <si>
+    <t>la date d'aujourd'hui est Novembre 19.</t>
+  </si>
+  <si>
+    <t>serviette</t>
+  </si>
+  <si>
+    <t>Elle s'est essuyé avec une serviette.</t>
+  </si>
+  <si>
+    <t>élève</t>
+  </si>
+  <si>
+    <t>C'est un élève du lycée.</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>clé</t>
+  </si>
+  <si>
+    <t>Où est ma clé?</t>
+  </si>
+  <si>
+    <t>billet</t>
+  </si>
+  <si>
+    <t>j'ai acheté deux billets pour l'opéra.</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>L'entreprise a déménageé à une nouvelle adresse.</t>
+  </si>
+  <si>
+    <t>douche</t>
+  </si>
+  <si>
+    <t>je veux prendre une douche</t>
+  </si>
+  <si>
+    <t>réception</t>
+  </si>
+  <si>
+    <t>Tous les visiteurs sont priés de se présenter à la réception.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,9 +502,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -356,159 +542,1133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C10" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table135781012" displayName="Table135781012" ref="A1:D13" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="un ou une" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="le ou la" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="word" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{80E408C6-A8A5-4D8F-A7CE-6A0509299510}" name="sample" dataDxfId="63"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C10" displayName="Table1357811" name="Table1357811" id="10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A1:D14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="un ou une" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="le ou la" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="word" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{ECB95D5F-A6A1-4392-8F11-C9A084B0D2A0}" name="sample" dataDxfId="51"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C13" displayName="Table135781012" name="Table135781012" id="11" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="un ou une" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="le ou la" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="word" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{BF5DB7DB-C283-44F1-B00A-EE4D0187D79A}" name="sample" dataDxfId="57"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C14" displayName="Table13" name="Table13" id="2" totalsRowShown="0">
-  <autoFilter ref="A1:C14"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1357811" displayName="Table1357811" ref="A1:D18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="un ou une" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="le ou la" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="word" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A0047EB6-D126-4E92-8825-23AE34A04A14}" name="sample" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C15" displayName="Table14" name="Table14" id="3" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table149" displayName="Table149" ref="A1:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:E25" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="un ou une" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="le ou la" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{399D4C17-9A9B-4C06-9DB4-ECAA949918CC}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="word" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A0FD872E-CF3C-4F93-BB0A-164B19F2963B}" name="sample" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C11" displayName="Table135" name="Table135" id="4" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1356" displayName="Table1356" ref="A1:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="un ou une" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="le ou la" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="word" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5CD45D27-68BF-4DD7-8351-E8ECC616EA89}" name="sample" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C13" displayName="Table1357" name="Table1357" id="5" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1357810" displayName="Table1357810" ref="A1:D20" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="un ou une" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="le ou la" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="word" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{1BC1A203-8E04-4E2A-860E-73C44487CA3E}" name="sample" dataDxfId="21"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C10" displayName="Table13578" name="Table13578" id="6" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13578" displayName="Table13578" ref="A1:D22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="un ou une" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="le ou la" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="word" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{27C3E824-AAD6-4015-A396-F3BE2D6F022E}" name="sample" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C13" displayName="Table1356" name="Table1356" id="7" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1357" displayName="Table1357" ref="A1:D13" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="un ou une" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="le ou la" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="word" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{1AA13CFF-FD28-43EA-AB1C-E143885E546E}" name="sample" dataDxfId="33"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C15" displayName="Table149" name="Table149" id="8" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table135" displayName="Table135" ref="A1:D35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="un ou une" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="le ou la" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="word" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{B68F0E73-7A63-4E3B-971D-3F1519A0771C}" name="sample" dataDxfId="39"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C13" displayName="Table1357810" name="Table1357810" id="9" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
-    <tableColumn name="un ou une" id="1"/>
-    <tableColumn name="le ou la" id="2"/>
-    <tableColumn name="word" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="un ou une" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="le ou la" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="word" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{713994E2-C86C-4895-AF97-000108206427}" name="sample" dataDxfId="45"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -517,10 +1677,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -558,71 +1718,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,7 +1810,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -673,11 +1833,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -686,13 +1846,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -702,7 +1862,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -711,7 +1871,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -720,7 +1880,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -728,10 +1888,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -796,22 +1956,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,30 +1985,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>not specified</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>89</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>not specified</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -852,42 +2023,51 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>not specified</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,8 +2075,9 @@
         <v>4</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -904,17 +2085,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <f> IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -922,8 +2106,9 @@
         <v>7</v>
       </c>
       <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,6 +2116,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -941,22 +2127,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,30 +2156,38 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,32 +2195,34 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,21 +2230,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,10 +2253,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1063,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,10 +2275,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +2320,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +2349,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1155,10 +2363,14 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1167,9 +2379,10 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2">
-        <f> IF(B4="la", "une",  IF(B4="le", "un", "not specified"))</f>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>IF(B4="la", "une",  IF(B4="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1178,9 +2391,10 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1189,9 +2403,10 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1200,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,21 +2423,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,10 +2446,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1241,8 +2457,100 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" ref="A12:A20" si="0">IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,22 +2561,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,105 +2590,198 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="24.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A18" si="0">IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>87</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
-      <c r="A4" s="2">
-        <f> IF(B4="la", "une",  IF(B4="le", "un", "not specified"))</f>
+        <v>88</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>93</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>94</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>95</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>96</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="2">
-        <f> IF(B9="la", "une",  IF(B9="le", "un", "not specified"))</f>
+        <v>108</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="2">
-        <f> IF(B10="la", "une",  IF(B10="le", "un", "not specified"))</f>
+        <v>109</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,153 +2792,363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="5" width="31.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f>IF(B10="la","une",IF(B10="le","un","not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <f> IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f>IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
+        <v>not specified</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f>IF(B14="la", "une",  IF(B14="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f>IF(B15="la", "une",  IF(B15="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16:A25" si="0">IF(B16="la", "une",  IF(B16="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,22 +3159,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,161 +3188,160 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f t="shared" ref="A5:A13" si="0">IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
-        <f>IF(B10="la","une",IF(B10="le","un","not specified"))</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <f> IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
-        <f> IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2">
-        <f> IF(B14="la", "une",  IF(B14="le", "un", "not specified"))</f>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2">
-        <f> IF(B15="la", "une",  IF(B15="le", "un", "not specified"))</f>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>145</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1733,22 +3351,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,156 +3380,282 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>IF(B4="la", "une",  IF(B4="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f>IF(B9="la", "une",  IF(B9="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
-        <f> IF(B9="la", "une",  IF(B9="le", "un", "not specified"))</f>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
-        <f> IF(B10="la", "une",  IF(B10="le", "un", "not specified"))</f>
-      </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <f> IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11:A20" si="0">IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>not specified</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <f> IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
-        <f> IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,30 +3665,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1948,32 +3702,34 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1981,21 +3737,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2003,10 +3760,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2014,8 +3771,119 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>IF(B12="la", "une",  IF(B12="le", "un", IF(B12="la-le", "une-un", "not specified")))</f>
+        <v>une-un</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f t="shared" ref="A13:A21" si="0">IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2026,22 +3894,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,30 +3923,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2082,32 +3960,34 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2115,21 +3995,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2137,10 +4018,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2148,21 +4029,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <f> IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2170,10 +4052,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2181,7 +4063,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2193,22 +4075,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,30 +4104,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2249,52 +4140,57 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <f> IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2302,10 +4198,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2313,10 +4210,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +4221,219 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
+        <f>IF(B16="la", "une",  IF(B16="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
+        <f t="shared" ref="A17:A35" si="0">IF(B17="la", "une",  IF(B17="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>un</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>une</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
       </c>
     </row>
   </sheetData>
@@ -2336,22 +4445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2361,30 +4474,38 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <f> IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <f> IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2392,10 +4513,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2403,117 +4524,127 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <f> IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <f> IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <f> IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <f>IF(B9="la", "une",  IF(B9="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
-        <f> IF(B9="la", "une",  IF(B9="le", "un", "not specified"))</f>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <f>IF(B10="la","une",IF(B10="le","un","not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
-        <f>IF(B10="la","une",IF(B10="le","un","not specified"))</f>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f>IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <f> IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f>IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
+        <v>un</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <f> IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
+        <f>IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
+        <v>not specified</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
-        <f> IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2">
-        <f> IF(B14="la", "une",  IF(B14="le", "un", "not specified"))</f>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
+        <f>IF(B14="la", "une",  IF(B14="le", "un", "not specified"))</f>
+        <v>une</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
+        <f>IF(B15="la", "une",  IF(B15="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2">
-        <f> IF(B15="la", "une",  IF(B15="le", "un", "not specified"))</f>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Flask apps\Learn-French-with-Miti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0026576-FABA-44E3-B32C-2C38B6A05652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BC8C5C-3656-404D-814D-F21690544399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="-108" windowWidth="16512" windowHeight="8520" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheather" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="148">
   <si>
     <t>un ou une</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>un voyage d'affaires</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>je n'arrive pas à me souvenir de son nom</t>
@@ -541,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,14 +546,459 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -732,6 +1174,146 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -821,48 +1403,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -902,571 +1442,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
         <name val="MS UI Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1529,144 +1504,143 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table135781012" displayName="Table135781012" ref="A1:D13" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table135781012" displayName="Table135781012" ref="A1:D13" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="un ou une" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="le ou la" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="word" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{80E408C6-A8A5-4D8F-A7CE-6A0509299510}" name="sample" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="un ou une" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="le ou la" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="word" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{80E408C6-A8A5-4D8F-A7CE-6A0509299510}" name="sample" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A1:D14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A1:D14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="un ou une" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="le ou la" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="word" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{ECB95D5F-A6A1-4392-8F11-C9A084B0D2A0}" name="sample" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="un ou une" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="le ou la" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="word" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{ECB95D5F-A6A1-4392-8F11-C9A084B0D2A0}" name="sample" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="un ou une" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="le ou la" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="word" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{BF5DB7DB-C283-44F1-B00A-EE4D0187D79A}" name="sample" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="un ou une" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="le ou la" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="word" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BF5DB7DB-C283-44F1-B00A-EE4D0187D79A}" name="sample" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1357811" displayName="Table1357811" ref="A1:D18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1357811" displayName="Table1357811" ref="A1:D18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="un ou une" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="le ou la" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="word" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A0047EB6-D126-4E92-8825-23AE34A04A14}" name="sample" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="un ou une" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="le ou la" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="word" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{A0047EB6-D126-4E92-8825-23AE34A04A14}" name="sample" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table149" displayName="Table149" ref="A1:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:E25" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="un ou une" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="le ou la" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{399D4C17-9A9B-4C06-9DB4-ECAA949918CC}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="word" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A0FD872E-CF3C-4F93-BB0A-164B19F2963B}" name="sample" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table149" displayName="Table149" ref="A1:D20" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="un ou une" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="le ou la" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="word" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{A0FD872E-CF3C-4F93-BB0A-164B19F2963B}" name="sample" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1356" displayName="Table1356" ref="A1:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1356" displayName="Table1356" ref="A1:D13" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="un ou une" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="le ou la" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="word" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5CD45D27-68BF-4DD7-8351-E8ECC616EA89}" name="sample" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="un ou une" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="le ou la" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="word" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{5CD45D27-68BF-4DD7-8351-E8ECC616EA89}" name="sample" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1357810" displayName="Table1357810" ref="A1:D20" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1357810" displayName="Table1357810" ref="A1:D20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="un ou une" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="le ou la" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="word" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1BC1A203-8E04-4E2A-860E-73C44487CA3E}" name="sample" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="un ou une" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="le ou la" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="word" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1BC1A203-8E04-4E2A-860E-73C44487CA3E}" name="sample" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13578" displayName="Table13578" ref="A1:D22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13578" displayName="Table13578" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="un ou une" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="le ou la" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="word" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{27C3E824-AAD6-4015-A396-F3BE2D6F022E}" name="sample" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="un ou une" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="le ou la" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="word" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{27C3E824-AAD6-4015-A396-F3BE2D6F022E}" name="sample" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1357" displayName="Table1357" ref="A1:D13" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1357" displayName="Table1357" ref="A1:D13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="un ou une" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="le ou la" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="word" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{1AA13CFF-FD28-43EA-AB1C-E143885E546E}" name="sample" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="un ou une" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="le ou la" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="word" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{1AA13CFF-FD28-43EA-AB1C-E143885E546E}" name="sample" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table135" displayName="Table135" ref="A1:D35" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table135" displayName="Table135" ref="A1:D35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="un ou une" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="le ou la" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="word" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{B68F0E73-7A63-4E3B-971D-3F1519A0771C}" name="sample" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="un ou une" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="le ou la" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="word" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B68F0E73-7A63-4E3B-971D-3F1519A0771C}" name="sample" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="un ou une" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="le ou la" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="word" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{713994E2-C86C-4895-AF97-000108206427}" name="sample" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="un ou une" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="le ou la" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="word" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{713994E2-C86C-4895-AF97-000108206427}" name="sample" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1963,7 +1937,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2796,41 +2770,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="5" width="31.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="31.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2838,13 +2808,13 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2852,39 +2822,39 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
         <v>une</v>
@@ -2892,13 +2862,13 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2906,13 +2876,13 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
         <v>une</v>
@@ -2920,137 +2890,132 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
-        <f>IF(B10="la","une",IF(B10="le","un","not specified"))</f>
-        <v>une</v>
+        <f>IF(B10="la", "une",  IF(B10="le", "un", "not specified"))</f>
+        <v>un</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11:A20" si="0">IF(B11="la", "une",  IF(B11="le", "un", "not specified"))</f>
+        <v>une</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>not specified</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="str">
-        <f>IF(B12="la", "une",  IF(B12="le", "un", "not specified"))</f>
-        <v>un</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
-        <f>IF(B13="la", "une",  IF(B13="le", "un", "not specified"))</f>
-        <v>not specified</v>
+        <f t="shared" si="0"/>
+        <v>une</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
-        <f>IF(B14="la", "une",  IF(B14="le", "un", "not specified"))</f>
+        <f t="shared" si="0"/>
         <v>une</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
-        <f>IF(B15="la", "une",  IF(B15="le", "un", "not specified"))</f>
+        <f t="shared" si="0"/>
         <v>une</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16:A25" si="0">IF(B16="la", "une",  IF(B16="le", "un", "not specified"))</f>
+        <f t="shared" si="0"/>
         <v>une</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>not specified</v>
+        <v>une</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3058,15 +3023,11 @@
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3074,11 +3035,11 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3086,69 +3047,9 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>une</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>une</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>une</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>une</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>une</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3204,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3335,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3425,7 +3326,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,7 +3340,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3451,10 +3352,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3469,7 +3370,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3484,7 +3385,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3497,7 +3398,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3511,7 +3412,7 @@
         <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3526,7 +3427,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -3551,10 +3452,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,10 +3707,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,7 +3722,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4301,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4316,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,10 +4232,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -4346,10 +4247,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Flask apps\Learn-French-with-Miti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BC8C5C-3656-404D-814D-F21690544399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C0A56-913D-4C3C-9CB7-49A8E9C3FBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheather" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>pantalon</t>
   </si>
   <si>
-    <t>petit-ami</t>
-  </si>
-  <si>
     <t>frère</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>Tous les visiteurs sont priés de se présenter à la réception.</t>
+  </si>
+  <si>
+    <t>petit ami</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1985,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2603,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2616,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -2642,7 +2642,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2772,7 +2772,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2809,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2823,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2836,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2849,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2863,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2877,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2891,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2904,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2918,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2946,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2960,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3102,10 +3102,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3128,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3200,7 +3200,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3224,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3236,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3294,10 +3294,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3308,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3323,10 +3323,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,10 +3337,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,10 +3352,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3367,10 +3367,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3382,10 +3382,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3395,10 +3395,10 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3409,10 +3409,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -3452,10 +3452,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,8 +3543,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,20 +3579,20 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
-        <v>not specified</v>
+        <v>un</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3603,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -3683,7 +3683,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3692,10 +3692,10 @@
         <v>une-un</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3704,13 +3704,13 @@
         <v>not specified</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,10 +3719,10 @@
         <v>not specified</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3825,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4053,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4155,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4202,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4217,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4232,10 +4232,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -4247,10 +4247,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Flask apps\Learn-French-with-Miti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C0A56-913D-4C3C-9CB7-49A8E9C3FBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C298F6-217A-4BDB-8078-F72C1CD401E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheather" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <t>matin</t>
   </si>
   <si>
-    <t>banabe</t>
-  </si>
-  <si>
     <t>légume</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>petit ami</t>
+  </si>
+  <si>
+    <t>banane</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2541,8 +2541,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2773,7 +2773,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2833,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>70</v>
@@ -2846,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
@@ -2857,10 +2857,10 @@
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
-        <v>une</v>
+        <v>un</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>72</v>
@@ -2871,10 +2871,10 @@
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
-        <v>un</v>
+        <v>une</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>73</v>
@@ -2885,10 +2885,10 @@
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
-        <v>une</v>
+        <v>not specified</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>74</v>
@@ -2960,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3105,7 +3105,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -3236,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3282,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3297,7 +3297,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3308,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3326,7 +3326,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,10 +3352,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3370,7 +3370,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,7 +3385,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3398,7 +3398,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3412,7 +3412,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -3424,10 +3424,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -3452,10 +3452,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,7 +3543,7 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -3707,10 +3707,10 @@
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3825,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4190,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4202,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4217,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4232,10 +4232,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="42" x14ac:dyDescent="0.3">
@@ -4247,10 +4247,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Flask apps\Learn-French-with-Miti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C298F6-217A-4BDB-8078-F72C1CD401E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2932C-6C16-4DDD-A9FA-E2265FBEBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22056" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12960" yWindow="-108" windowWidth="16512" windowHeight="8520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wheather" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="182">
   <si>
     <t>un ou une</t>
   </si>
@@ -471,9 +471,6 @@
     <t>douche</t>
   </si>
   <si>
-    <t>je veux prendre une douche</t>
-  </si>
-  <si>
     <t>réception</t>
   </si>
   <si>
@@ -484,6 +481,111 @@
   </si>
   <si>
     <t>banane</t>
+  </si>
+  <si>
+    <t>l'hiver commence en decémbre et termine en mars.</t>
+  </si>
+  <si>
+    <t>Nous partons toujours en vacances en été.</t>
+  </si>
+  <si>
+    <t>La cuissons de la brioche est délicate</t>
+  </si>
+  <si>
+    <t>Tu veux du yaourt pour ton déjeuner?</t>
+  </si>
+  <si>
+    <t>Les jaunes Americains consomment beaucoup de biére.</t>
+  </si>
+  <si>
+    <t>J'aimrais mettre de la confiture sur mes tartines de pains</t>
+  </si>
+  <si>
+    <t>Je ne mange pas de la viande</t>
+  </si>
+  <si>
+    <t>Comme plat, voulez-vous du poisson ou de la viande?</t>
+  </si>
+  <si>
+    <t>Au petit déjeuner, je mange souvent une banane.</t>
+  </si>
+  <si>
+    <t>La carrot est un légume.</t>
+  </si>
+  <si>
+    <t>On se retrouve au café.</t>
+  </si>
+  <si>
+    <t>Les principaux magasins sont à la grande rue.</t>
+  </si>
+  <si>
+    <t>Ma melliuere amie étudie pharmacie/la médecine en espagne.</t>
+  </si>
+  <si>
+    <t>Il attend le métro tous les matins à la station Javel.</t>
+  </si>
+  <si>
+    <t>Le samedi, je fais des courses au supermarché.</t>
+  </si>
+  <si>
+    <t>feu</t>
+  </si>
+  <si>
+    <t>Toute la ville regardait le feu d'artifice.</t>
+  </si>
+  <si>
+    <t>L'église fête Noël au vignt quatre decembre au soir.</t>
+  </si>
+  <si>
+    <t>Notre région est très active car il y a de nombreuses usines.</t>
+  </si>
+  <si>
+    <t>On a construit un nouveau pont.</t>
+  </si>
+  <si>
+    <t>La grand rue.</t>
+  </si>
+  <si>
+    <t>Il vit dans un immeuble en ville.</t>
+  </si>
+  <si>
+    <t>J'ai une lampre sur mon bureau.</t>
+  </si>
+  <si>
+    <t>J'utilise habituellement ma deuxième chambre à coucher.</t>
+  </si>
+  <si>
+    <t>raison</t>
+  </si>
+  <si>
+    <t>Il existe un mur d'incompréhension entre ces deux personnes.</t>
+  </si>
+  <si>
+    <t>C'est ma raison d'être.</t>
+  </si>
+  <si>
+    <t>Nous discutons avec nos hôtes dans le salon.</t>
+  </si>
+  <si>
+    <t>Autour de la table étaitent disposées quatre chaises.</t>
+  </si>
+  <si>
+    <t>Il y a dix pièce dans notre maison.</t>
+  </si>
+  <si>
+    <t>l'air et la lumière entre par la fenêtre.</t>
+  </si>
+  <si>
+    <t>les enfents jouevnt dans leur chambre.</t>
+  </si>
+  <si>
+    <t>On entre et on sort pas la porte.</t>
+  </si>
+  <si>
+    <t>Nous prenons nos repas sur une table.</t>
+  </si>
+  <si>
+    <t>je veux prendre une douche.</t>
   </si>
 </sst>
 </file>
@@ -1057,6 +1159,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="MS UI Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1068,48 +1212,6 @@
         <vertAlign val="baseline"/>
         <sz val="18"/>
         <color rgb="FF000000"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="MS UI Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
         <name val="MS UI Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1517,26 +1619,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A1:D14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table13" displayName="Table13" ref="A1:D14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="un ou une" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="le ou la" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="word" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{ECB95D5F-A6A1-4392-8F11-C9A084B0D2A0}" name="sample" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="un ou une" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="le ou la" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="word" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{ECB95D5F-A6A1-4392-8F11-C9A084B0D2A0}" name="sample" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="un ou une" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="le ou la" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="word" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BF5DB7DB-C283-44F1-B00A-EE4D0187D79A}" name="sample" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="un ou une" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="le ou la" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="word" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BF5DB7DB-C283-44F1-B00A-EE4D0187D79A}" name="sample" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,74 +1675,74 @@
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="un ou une" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="le ou la" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="word" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{5CD45D27-68BF-4DD7-8351-E8ECC616EA89}" name="sample" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="le ou la" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="word" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5CD45D27-68BF-4DD7-8351-E8ECC616EA89}" name="sample" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1357810" displayName="Table1357810" ref="A1:D20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1357810" displayName="Table1357810" ref="A1:D20" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:D20" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="un ou une" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="le ou la" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="word" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{1BC1A203-8E04-4E2A-860E-73C44487CA3E}" name="sample" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="un ou une" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="le ou la" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="word" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{1BC1A203-8E04-4E2A-860E-73C44487CA3E}" name="sample" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13578" displayName="Table13578" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13578" displayName="Table13578" ref="A1:D22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="un ou une" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="le ou la" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="word" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{27C3E824-AAD6-4015-A396-F3BE2D6F022E}" name="sample" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="un ou une" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="le ou la" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="word" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{27C3E824-AAD6-4015-A396-F3BE2D6F022E}" name="sample" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1357" displayName="Table1357" ref="A1:D13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1357" displayName="Table1357" ref="A1:D13" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="un ou une" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="le ou la" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="word" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{1AA13CFF-FD28-43EA-AB1C-E143885E546E}" name="sample" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="un ou une" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="le ou la" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="word" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{1AA13CFF-FD28-43EA-AB1C-E143885E546E}" name="sample" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table135" displayName="Table135" ref="A1:D35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table135" displayName="Table135" ref="A1:D35" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="un ou une" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="le ou la" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="word" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B68F0E73-7A63-4E3B-971D-3F1519A0771C}" name="sample" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="un ou une" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="le ou la" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="word" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{B68F0E73-7A63-4E3B-971D-3F1519A0771C}" name="sample" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="un ou une" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="le ou la" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="word" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{713994E2-C86C-4895-AF97-000108206427}" name="sample" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="un ou une" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="le ou la" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="word" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{713994E2-C86C-4895-AF97-000108206427}" name="sample" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1945,11 +2047,11 @@
     <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +2065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
         <v>not specified</v>
@@ -1974,9 +2076,11 @@
       <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
         <v>not specified</v>
@@ -1987,17 +2091,23 @@
       <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
@@ -2541,8 +2651,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A18" si="0">IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
         <v>une</v>
@@ -2579,9 +2689,11 @@
       <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
@@ -2592,9 +2704,11 @@
       <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -2605,9 +2719,11 @@
       <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -2618,9 +2734,11 @@
       <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -2631,9 +2749,11 @@
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
@@ -2644,9 +2764,11 @@
       <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -2655,11 +2777,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
@@ -2670,9 +2794,11 @@
       <c r="C9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
@@ -2772,8 +2898,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2911,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2926,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>IF(B2="la", "une",  IF(B2="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2811,10 +2937,12 @@
       <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2825,10 +2953,12 @@
       <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2838,10 +2968,12 @@
       <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2851,10 +2983,12 @@
       <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f>IF(B6="la", "une",  IF(B6="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2865,10 +2999,12 @@
       <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f>IF(B7="la", "une",  IF(B7="le", "un", "not specified"))</f>
         <v>une</v>
@@ -2879,10 +3015,12 @@
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f>IF(B8="la", "une",  IF(B8="le", "un", "not specified"))</f>
         <v>not specified</v>
@@ -2893,10 +3031,12 @@
       <c r="C8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2906,10 +3046,12 @@
       <c r="C9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f>IF(B10="la", "une",  IF(B10="le", "un", "not specified"))</f>
         <v>un</v>
@@ -2920,7 +3062,9 @@
       <c r="C10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2934,10 +3078,12 @@
       <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>not specified</v>
@@ -2948,7 +3094,9 @@
       <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="84" x14ac:dyDescent="0.3">
@@ -2960,10 +3108,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3053,8 +3201,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3064,9 +3213,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3228,7 @@
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="str">
         <f>IF(B3="la", "une",  IF(B3="le", "un", "not specified"))</f>
         <v>une</v>
@@ -3119,8 +3268,11 @@
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3130,8 +3282,11 @@
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="str">
         <f t="shared" ref="A5:A13" si="0">IF(B5="la", "une",  IF(B5="le", "un", "not specified"))</f>
         <v>un</v>
@@ -3142,8 +3297,11 @@
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>un</v>
@@ -3154,8 +3312,11 @@
       <c r="C6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3166,8 +3327,11 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3178,8 +3342,11 @@
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3190,8 +3357,11 @@
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3202,8 +3372,11 @@
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3214,8 +3387,11 @@
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3226,8 +3402,11 @@
       <c r="C12" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>une</v>
@@ -3239,10 +3418,9 @@
         <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3259,7 +3437,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -3476,11 +3654,17 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>not specified</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>une</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
@@ -3579,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1"/>
     </row>
